--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_9_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_9_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1010,9 +1010,44 @@
         <v>10200</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I19">
+        <v>272000</v>
+      </c>
+      <c r="J19">
+        <v>27900</v>
+      </c>
+      <c r="K19">
+        <v>244100</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K19"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_9_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_9_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,217 +417,182 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>KAMILIA LALA</v>
+        <v>HAYLALA ONE</v>
       </c>
       <c r="B2" t="str">
-        <v>D235689</v>
+        <v>BG12456</v>
       </c>
       <c r="C2" t="str">
-        <v>314564867486153468743615</v>
+        <v>111111111111111111111111</v>
       </c>
       <c r="D2" t="str">
-        <v>AG1</v>
+        <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>BP</v>
+        <v>11</v>
       </c>
       <c r="F2" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>910/TANGER /AV1</v>
+        <v>949/DR</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>24000</v>
+        <v>4334.4</v>
       </c>
       <c r="J2">
-        <v>3600</v>
+        <v>433.44</v>
       </c>
       <c r="K2">
-        <v>20400</v>
+        <v>3900.96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>ABDOU FAFA</v>
+        <v>HAYLAL TWO</v>
       </c>
       <c r="B3" t="str">
-        <v>K3544354</v>
+        <v>BG196435</v>
       </c>
       <c r="C3" t="str">
-        <v>354548674643548674825458</v>
+        <v>114655555555555555555555</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>5</v>
       </c>
       <c r="E3" t="str">
-        <v>BP</v>
+        <v>5</v>
       </c>
       <c r="F3" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v>910/TANGER /AV1</v>
+        <v>949/DR</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>13354.4</v>
+        <v>5665.73</v>
       </c>
       <c r="J3">
-        <v>2003.16</v>
+        <v>566.57</v>
       </c>
       <c r="K3">
-        <v>11351.24</v>
+        <v>5099.16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>SAMIR DADA</v>
+        <v>ALI EXPRESSE</v>
       </c>
       <c r="B4" t="str">
-        <v>L254654</v>
+        <v>11986345</v>
       </c>
       <c r="C4" t="str">
-        <v>365674864648774548676452</v>
+        <v>114684354634563543243543</v>
       </c>
       <c r="D4" t="str">
-        <v>AGG</v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v>NO</v>
+        <v>354354</v>
       </c>
       <c r="F4" t="str">
-        <v>Direction régionale</v>
+        <v>Logement de fonction</v>
       </c>
       <c r="G4" t="str">
-        <v>910/TANGER /AV1</v>
+        <v>001/LF/TEST DR/AV1</v>
       </c>
       <c r="H4" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I4">
-        <v>2645.6</v>
+        <v>30000</v>
       </c>
       <c r="J4">
-        <v>264.56</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2381.04</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>MORAD JOJO</v>
+        <v>TETS TESTS</v>
       </c>
       <c r="B5" t="str">
-        <v>L5245475</v>
+        <v>BG432432</v>
       </c>
       <c r="C5" t="str">
-        <v>245354564354676745346547</v>
+        <v>321321321312111111111111</v>
       </c>
       <c r="D5" t="str">
-        <v>AG55</v>
+        <v>11</v>
       </c>
       <c r="E5" t="str">
-        <v>BP</v>
+        <v>111</v>
       </c>
       <c r="F5" t="str">
-        <v>Point de vente</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G5" t="str">
-        <v>115/TANGER MED/AV1</v>
+        <v>001/TEST DR</v>
       </c>
       <c r="H5" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I5">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="J5">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="K5">
-        <v>13500</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>KHALID RARA</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B6" t="str">
-        <v>L525655</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C6" t="str">
-        <v>354647646468746878635467</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E6" t="str">
-        <v>BP</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F6" t="str">
-        <v>Point de vente</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G6" t="str">
-        <v>115/TANGER MED/AV1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H6" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I6">
-        <v>6000</v>
+        <v>60000.13</v>
       </c>
       <c r="J6">
-        <v>600</v>
+        <v>4000.01</v>
       </c>
       <c r="K6">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I7">
-        <v>61000</v>
-      </c>
-      <c r="J7">
-        <v>7967.72</v>
-      </c>
-      <c r="K7">
-        <v>53032.28</v>
+        <v>56000.12</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_9_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_9_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -435,164 +435,234 @@
         <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>949/DR</v>
+        <v>049/DR 2</v>
       </c>
       <c r="H2" t="str">
-        <v>mensuelle</v>
+        <v>annuelle</v>
       </c>
       <c r="I2">
-        <v>4334.4</v>
+        <v>200000</v>
       </c>
       <c r="J2">
-        <v>433.44</v>
+        <v>10000</v>
       </c>
       <c r="K2">
-        <v>3900.96</v>
+        <v>190000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>HAYLAL TWO</v>
+        <v>HAYLALA ONE</v>
       </c>
       <c r="B3" t="str">
-        <v>BG196435</v>
+        <v>BG12456</v>
       </c>
       <c r="C3" t="str">
-        <v>114655555555555555555555</v>
+        <v>111111111111111111111111</v>
       </c>
       <c r="D3" t="str">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" t="str">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F3" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v>949/DR</v>
+        <v>094/DR 1</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>5665.73</v>
+        <v>20000</v>
       </c>
       <c r="J3">
-        <v>566.57</v>
+        <v>1500</v>
       </c>
       <c r="K3">
-        <v>5099.16</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>ALI EXPRESSE</v>
+        <v>HAYLALA ONE</v>
       </c>
       <c r="B4" t="str">
-        <v>11986345</v>
+        <v>BG12456</v>
       </c>
       <c r="C4" t="str">
-        <v>114684354634563543243543</v>
+        <v>111111111111111111111111</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E4" t="str">
-        <v>354354</v>
+        <v>11</v>
       </c>
       <c r="F4" t="str">
-        <v>Logement de fonction</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G4" t="str">
-        <v>001/LF/TEST DR/AV1</v>
+        <v>949/DR</v>
       </c>
       <c r="H4" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I4">
-        <v>30000</v>
+        <v>4334.4</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>433.44</v>
       </c>
       <c r="K4">
-        <v>30000</v>
+        <v>3900.96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>TETS TESTS</v>
+        <v>HAYLAL TWO</v>
       </c>
       <c r="B5" t="str">
-        <v>BG432432</v>
+        <v>BG196435</v>
       </c>
       <c r="C5" t="str">
-        <v>321321321312111111111111</v>
+        <v>114655555555555555555555</v>
       </c>
       <c r="D5" t="str">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E5" t="str">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="F5" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G5" t="str">
-        <v>001/TEST DR</v>
+        <v>949/DR</v>
       </c>
       <c r="H5" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I5">
-        <v>20000</v>
+        <v>5665.73</v>
       </c>
       <c r="J5">
-        <v>3000</v>
+        <v>566.57</v>
       </c>
       <c r="K5">
-        <v>17000</v>
+        <v>5099.16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ALI EXPRESSE</v>
       </c>
       <c r="B6" t="str">
-        <v xml:space="preserve"> </v>
+        <v>11986345</v>
       </c>
       <c r="C6" t="str">
-        <v xml:space="preserve"> </v>
+        <v>114684354634563543243543</v>
       </c>
       <c r="D6" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E6" t="str">
-        <v xml:space="preserve"> </v>
+        <v>354354</v>
       </c>
       <c r="F6" t="str">
-        <v xml:space="preserve"> </v>
+        <v>Logement de fonction</v>
       </c>
       <c r="G6" t="str">
-        <v xml:space="preserve"> </v>
+        <v>001/LF/TEST DR/AV1</v>
       </c>
       <c r="H6" t="str">
-        <v xml:space="preserve"> </v>
+        <v>mensuelle</v>
       </c>
       <c r="I6">
-        <v>60000.13</v>
+        <v>30000</v>
       </c>
       <c r="J6">
-        <v>4000.01</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>56000.12</v>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>TETS TESTS</v>
+      </c>
+      <c r="B7" t="str">
+        <v>BG432432</v>
+      </c>
+      <c r="C7" t="str">
+        <v>321321321312111111111111</v>
+      </c>
+      <c r="D7" t="str">
+        <v>11</v>
+      </c>
+      <c r="E7" t="str">
+        <v>111</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G7" t="str">
+        <v>001/TEST DR</v>
+      </c>
+      <c r="H7" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I7">
+        <v>20000</v>
+      </c>
+      <c r="J7">
+        <v>3000</v>
+      </c>
+      <c r="K7">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I8">
+        <v>280000.13</v>
+      </c>
+      <c r="J8">
+        <v>15500.01</v>
+      </c>
+      <c r="K8">
+        <v>264500.12</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_9_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_9_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,287 +417,147 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve">MED FARID </v>
+        <v>KHADIJA LALA</v>
       </c>
       <c r="B2" t="str">
-        <v>F4767464</v>
+        <v>K5443645</v>
       </c>
       <c r="C2" t="str">
-        <v>354697496468748943641872</v>
+        <v>354564564324158786713544</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>AG 100</v>
       </c>
       <c r="E2" t="str">
         <v>BP</v>
       </c>
       <c r="F2" t="str">
-        <v>Point de vente</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>665/FES 2</v>
+        <v xml:space="preserve">044/FES VILLE </v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="J2">
-        <v>2250</v>
+        <v>1500</v>
       </c>
       <c r="K2">
-        <v>12750</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>KHADIJA LALA</v>
+        <v>NABIL KAMAL</v>
       </c>
       <c r="B3" t="str">
-        <v>K5443645</v>
+        <v>L3578354</v>
       </c>
       <c r="C3" t="str">
-        <v>354564564324158786713544</v>
+        <v>345534544587485743558673</v>
       </c>
       <c r="D3" t="str">
-        <v>AG 100</v>
+        <v>AGG1</v>
       </c>
       <c r="E3" t="str">
         <v>BP</v>
       </c>
       <c r="F3" t="str">
-        <v>Direction régionale</v>
+        <v>Logement de fonction</v>
       </c>
       <c r="G3" t="str">
-        <v xml:space="preserve">044/FES VILLE </v>
+        <v xml:space="preserve">044/LF/FES VILLE </v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>4800</v>
+        <v>10000</v>
       </c>
       <c r="J3">
-        <v>480</v>
+        <v>1500</v>
       </c>
       <c r="K3">
-        <v>4320</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>NABIL KAMAL</v>
+        <v>SAMIRA TATA</v>
       </c>
       <c r="B4" t="str">
-        <v>L3578354</v>
+        <v>D524564</v>
       </c>
       <c r="C4" t="str">
-        <v>345534544587485743558673</v>
+        <v>335463513748543615567464</v>
       </c>
       <c r="D4" t="str">
-        <v>AGG1</v>
+        <v/>
       </c>
       <c r="E4" t="str">
         <v>BP</v>
       </c>
       <c r="F4" t="str">
-        <v>Direction régionale</v>
+        <v>Supervision</v>
       </c>
       <c r="G4" t="str">
-        <v xml:space="preserve">044/FES VILLE </v>
+        <v>554/SUP FES 1</v>
       </c>
       <c r="H4" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I4">
-        <v>7200</v>
+        <v>10000</v>
       </c>
       <c r="J4">
-        <v>720</v>
+        <v>1500</v>
       </c>
       <c r="K4">
-        <v>6480</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>KARIM JALAL</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B5" t="str">
-        <v>P5874857</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C5" t="str">
-        <v>548748641684867461687153</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D5" t="str">
-        <v>FES SUD</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E5" t="str">
-        <v>BMCE</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F5" t="str">
-        <v>Logement de fonction</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G5" t="str">
-        <v xml:space="preserve">044/LF/FES VILLE </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H5" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I5">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="J5">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="K5">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>SAMIRA TATA</v>
-      </c>
-      <c r="B6" t="str">
-        <v>D524564</v>
-      </c>
-      <c r="C6" t="str">
-        <v>335463513748543615567464</v>
-      </c>
-      <c r="D6" t="str">
-        <v/>
-      </c>
-      <c r="E6" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G6" t="str">
-        <v>800/PV FES 1</v>
-      </c>
-      <c r="H6" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I6">
-        <v>20000</v>
-      </c>
-      <c r="J6">
-        <v>3000</v>
-      </c>
-      <c r="K6">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>KARIM JALAL</v>
-      </c>
-      <c r="B7" t="str">
-        <v>P5874857</v>
-      </c>
-      <c r="C7" t="str">
-        <v>548748641684867461687153</v>
-      </c>
-      <c r="D7" t="str">
-        <v>FES SUD</v>
-      </c>
-      <c r="E7" t="str">
-        <v>BMCE</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G7" t="str">
-        <v>009/SKSK</v>
-      </c>
-      <c r="H7" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I7">
-        <v>10000</v>
-      </c>
-      <c r="J7">
-        <v>1500</v>
-      </c>
-      <c r="K7">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>STE 230</v>
-      </c>
-      <c r="B8" t="str">
-        <v>2354656</v>
-      </c>
-      <c r="C8" t="str">
-        <v>354684684165486415348646</v>
-      </c>
-      <c r="D8" t="str">
-        <v/>
-      </c>
-      <c r="E8" t="str">
-        <v>BMCE</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Supervision</v>
-      </c>
-      <c r="G8" t="str">
-        <v>554/SUP FES 1</v>
-      </c>
-      <c r="H8" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I8">
-        <v>15000</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I9">
-        <v>92000</v>
-      </c>
-      <c r="J9">
-        <v>10950</v>
-      </c>
-      <c r="K9">
-        <v>81050</v>
+        <v>25500</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_9_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_9_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,25 +417,25 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>KHADIJA LALA</v>
+        <v>JALAL MED</v>
       </c>
       <c r="B2" t="str">
-        <v>K5443645</v>
+        <v>J2545456</v>
       </c>
       <c r="C2" t="str">
-        <v>354564564324158786713544</v>
+        <v>265463456416547645654645</v>
       </c>
       <c r="D2" t="str">
-        <v>AG 100</v>
+        <v>AGG</v>
       </c>
       <c r="E2" t="str">
         <v>BP</v>
       </c>
       <c r="F2" t="str">
-        <v>Direction régionale</v>
+        <v>Logement de fonction</v>
       </c>
       <c r="G2" t="str">
-        <v xml:space="preserve">044/FES VILLE </v>
+        <v>220/LF/CASA NORD</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
@@ -444,120 +444,85 @@
         <v>10000</v>
       </c>
       <c r="J2">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K2">
-        <v>8500</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>NABIL KAMAL</v>
+        <v>CHARIJI ABDELLAH</v>
       </c>
       <c r="B3" t="str">
-        <v>L3578354</v>
+        <v>BJ36877</v>
       </c>
       <c r="C3" t="str">
-        <v>345534544587485743558673</v>
+        <v>00101211111292695000201732</v>
       </c>
       <c r="D3" t="str">
-        <v>AGG1</v>
+        <v>AOURIR</v>
       </c>
       <c r="E3" t="str">
-        <v>BP</v>
+        <v>BP CENTRE SUD</v>
       </c>
       <c r="F3" t="str">
-        <v>Logement de fonction</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v xml:space="preserve">044/LF/FES VILLE </v>
+        <v>220/CASA NORD</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="J3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K3">
-        <v>8500</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>SAMIRA TATA</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B4" t="str">
-        <v>D524564</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C4" t="str">
-        <v>335463513748543615567464</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E4" t="str">
-        <v>BP</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F4" t="str">
-        <v>Supervision</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G4" t="str">
-        <v>554/SUP FES 1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H4" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I4">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="J4">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="K4">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I5">
-        <v>30000</v>
-      </c>
-      <c r="J5">
-        <v>4500</v>
-      </c>
-      <c r="K5">
-        <v>25500</v>
+        <v>19700</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_9_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_9_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,112 +417,287 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>JALAL MED</v>
+        <v>CHARIJI ABDELLAH</v>
       </c>
       <c r="B2" t="str">
-        <v>J2545456</v>
+        <v>BJ36877</v>
       </c>
       <c r="C2" t="str">
-        <v>265463456416547645654645</v>
+        <v>00101211111292695000201732</v>
       </c>
       <c r="D2" t="str">
-        <v>AGG</v>
+        <v>AOURIR</v>
       </c>
       <c r="E2" t="str">
-        <v>BP</v>
+        <v>BP CENTRE SUD</v>
       </c>
       <c r="F2" t="str">
-        <v>Logement de fonction</v>
+        <v>Point de vente</v>
       </c>
       <c r="G2" t="str">
-        <v>220/LF/CASA NORD</v>
+        <v>389/AOURIR</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="J2">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K2">
-        <v>9500</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>CHARIJI ABDELLAH</v>
+        <v>BAKKALI MOHAMED</v>
       </c>
       <c r="B3" t="str">
-        <v>BJ36877</v>
+        <v>B12346</v>
       </c>
       <c r="C3" t="str">
-        <v>00101211111292695000201732</v>
+        <v>78017053636372722873881919</v>
       </c>
       <c r="D3" t="str">
-        <v>AOURIR</v>
+        <v>HASSAN 2</v>
       </c>
       <c r="E3" t="str">
-        <v>BP CENTRE SUD</v>
+        <v>BP</v>
       </c>
       <c r="F3" t="str">
-        <v>Direction régionale</v>
+        <v>Point de vente</v>
       </c>
       <c r="G3" t="str">
-        <v>220/CASA NORD</v>
+        <v>508/MENARA</v>
       </c>
       <c r="H3" t="str">
-        <v>mensuelle</v>
+        <v>trimestrielle</v>
       </c>
       <c r="I3">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="J3">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="K3">
-        <v>10200</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
+        <v>SOCIETE 1</v>
+      </c>
+      <c r="B4" t="str">
+        <v>354646</v>
+      </c>
+      <c r="C4" t="str">
+        <v>54544646446464646464444464</v>
+      </c>
+      <c r="D4" t="str">
+        <v>AGENCE 1</v>
+      </c>
+      <c r="E4" t="str">
+        <v>BP CENTRE SUD</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Supervision</v>
+      </c>
+      <c r="G4" t="str">
+        <v>001/SUP SUD</v>
+      </c>
+      <c r="H4" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I4">
+        <v>2400</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>SOCIETE 1</v>
+      </c>
+      <c r="B5" t="str">
+        <v>354646</v>
+      </c>
+      <c r="C5" t="str">
+        <v>54544646446464646464444464</v>
+      </c>
+      <c r="D5" t="str">
+        <v>AGENCE 1</v>
+      </c>
+      <c r="E5" t="str">
+        <v>BP CENTRE SUD</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Logement de fonction</v>
+      </c>
+      <c r="G5" t="str">
+        <v>908/LF/DIRECTION REGIONALE SUD</v>
+      </c>
+      <c r="H5" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I5">
+        <v>16000</v>
+      </c>
+      <c r="J5">
+        <v>1400</v>
+      </c>
+      <c r="K5">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>ACHENGLI LAILA</v>
+      </c>
+      <c r="B6" t="str">
+        <v>J207703</v>
+      </c>
+      <c r="C6" t="str">
+        <v>00101211115087750001201090</v>
+      </c>
+      <c r="D6" t="str">
+        <v>AIT SOUSS</v>
+      </c>
+      <c r="E6" t="str">
+        <v>BP CENTRE SUD</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Siège</v>
+      </c>
+      <c r="G6" t="str">
+        <v>900/PATIO</v>
+      </c>
+      <c r="H6" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I6">
+        <v>4500</v>
+      </c>
+      <c r="J6">
+        <v>450</v>
+      </c>
+      <c r="K6">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>NACER YASSINE</v>
+      </c>
+      <c r="B7" t="str">
+        <v>L234567</v>
+      </c>
+      <c r="C7" t="str">
+        <v>78017098772736274634834384</v>
+      </c>
+      <c r="D7" t="str">
+        <v>TOUHAMI</v>
+      </c>
+      <c r="E7" t="str">
+        <v>ATTIJARI WAFA BANK</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G7" t="str">
+        <v>805/KOUTOUBIA</v>
+      </c>
+      <c r="H7" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I7">
+        <v>12000</v>
+      </c>
+      <c r="J7">
+        <v>1800</v>
+      </c>
+      <c r="K7">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>ACHENGLI LAILA</v>
+      </c>
+      <c r="B8" t="str">
+        <v>J207703</v>
+      </c>
+      <c r="C8" t="str">
+        <v>00101211115087750001201090</v>
+      </c>
+      <c r="D8" t="str">
+        <v>AIT SOUSS</v>
+      </c>
+      <c r="E8" t="str">
+        <v>BP CENTRE SUD</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G8" t="str">
+        <v>908/DIRECTION REGIONALE SUD</v>
+      </c>
+      <c r="H8" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I8">
+        <v>20000</v>
+      </c>
+      <c r="J8">
+        <v>3000</v>
+      </c>
+      <c r="K8">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B4" t="str">
+      <c r="B9" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C4" t="str">
+      <c r="C9" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D4" t="str">
+      <c r="D9" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E4" t="str">
+      <c r="E9" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F4" t="str">
+      <c r="F9" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G4" t="str">
+      <c r="G9" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H4" t="str">
+      <c r="H9" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I4">
-        <v>22000</v>
-      </c>
-      <c r="J4">
-        <v>2300</v>
-      </c>
-      <c r="K4">
-        <v>19700</v>
+      <c r="I9">
+        <v>70900</v>
+      </c>
+      <c r="J9">
+        <v>8250</v>
+      </c>
+      <c r="K9">
+        <v>62650</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_9_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_9_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,287 +417,77 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>CHARIJI ABDELLAH</v>
+        <v>JEMAA HORMI</v>
       </c>
       <c r="B2" t="str">
-        <v>BJ36877</v>
+        <v>B219321</v>
       </c>
       <c r="C2" t="str">
-        <v>00101211111292695000201732</v>
+        <v>225400000805987601012173</v>
       </c>
       <c r="D2" t="str">
-        <v>AOURIR</v>
+        <v>KHOURIBGA</v>
       </c>
       <c r="E2" t="str">
-        <v>BP CENTRE SUD</v>
+        <v>CA</v>
       </c>
       <c r="F2" t="str">
-        <v>Point de vente</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>389/AOURIR</v>
+        <v>001/TTT</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="J2">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>6300</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>BAKKALI MOHAMED</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B3" t="str">
-        <v>B12346</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C3" t="str">
-        <v>78017053636372722873881919</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D3" t="str">
-        <v>HASSAN 2</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E3" t="str">
-        <v>BP</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F3" t="str">
-        <v>Point de vente</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G3" t="str">
-        <v>508/MENARA</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H3" t="str">
-        <v>trimestrielle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I3">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="J3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>8100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>SOCIETE 1</v>
-      </c>
-      <c r="B4" t="str">
-        <v>354646</v>
-      </c>
-      <c r="C4" t="str">
-        <v>54544646446464646464444464</v>
-      </c>
-      <c r="D4" t="str">
-        <v>AGENCE 1</v>
-      </c>
-      <c r="E4" t="str">
-        <v>BP CENTRE SUD</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Supervision</v>
-      </c>
-      <c r="G4" t="str">
-        <v>001/SUP SUD</v>
-      </c>
-      <c r="H4" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I4">
-        <v>2400</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>SOCIETE 1</v>
-      </c>
-      <c r="B5" t="str">
-        <v>354646</v>
-      </c>
-      <c r="C5" t="str">
-        <v>54544646446464646464444464</v>
-      </c>
-      <c r="D5" t="str">
-        <v>AGENCE 1</v>
-      </c>
-      <c r="E5" t="str">
-        <v>BP CENTRE SUD</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Logement de fonction</v>
-      </c>
-      <c r="G5" t="str">
-        <v>908/LF/DIRECTION REGIONALE SUD</v>
-      </c>
-      <c r="H5" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I5">
-        <v>16000</v>
-      </c>
-      <c r="J5">
-        <v>1400</v>
-      </c>
-      <c r="K5">
-        <v>14600</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>ACHENGLI LAILA</v>
-      </c>
-      <c r="B6" t="str">
-        <v>J207703</v>
-      </c>
-      <c r="C6" t="str">
-        <v>00101211115087750001201090</v>
-      </c>
-      <c r="D6" t="str">
-        <v>AIT SOUSS</v>
-      </c>
-      <c r="E6" t="str">
-        <v>BP CENTRE SUD</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Siège</v>
-      </c>
-      <c r="G6" t="str">
-        <v>900/PATIO</v>
-      </c>
-      <c r="H6" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I6">
-        <v>4500</v>
-      </c>
-      <c r="J6">
-        <v>450</v>
-      </c>
-      <c r="K6">
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>NACER YASSINE</v>
-      </c>
-      <c r="B7" t="str">
-        <v>L234567</v>
-      </c>
-      <c r="C7" t="str">
-        <v>78017098772736274634834384</v>
-      </c>
-      <c r="D7" t="str">
-        <v>TOUHAMI</v>
-      </c>
-      <c r="E7" t="str">
-        <v>ATTIJARI WAFA BANK</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G7" t="str">
-        <v>805/KOUTOUBIA</v>
-      </c>
-      <c r="H7" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I7">
-        <v>12000</v>
-      </c>
-      <c r="J7">
-        <v>1800</v>
-      </c>
-      <c r="K7">
-        <v>10200</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>ACHENGLI LAILA</v>
-      </c>
-      <c r="B8" t="str">
-        <v>J207703</v>
-      </c>
-      <c r="C8" t="str">
-        <v>00101211115087750001201090</v>
-      </c>
-      <c r="D8" t="str">
-        <v>AIT SOUSS</v>
-      </c>
-      <c r="E8" t="str">
-        <v>BP CENTRE SUD</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G8" t="str">
-        <v>908/DIRECTION REGIONALE SUD</v>
-      </c>
-      <c r="H8" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I8">
-        <v>20000</v>
-      </c>
-      <c r="J8">
-        <v>3000</v>
-      </c>
-      <c r="K8">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I9">
-        <v>70900</v>
-      </c>
-      <c r="J9">
-        <v>8250</v>
-      </c>
-      <c r="K9">
-        <v>62650</v>
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>